--- a/4주 프로젝트 계획서.xlsx
+++ b/4주 프로젝트 계획서.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>4주 프로젝트 시간 표시 막대</t>
   </si>
@@ -79,23 +79,27 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>JPT 문제 DB 구축</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">UI 구현및 &amp; JSP 구현 </t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">UI 구현및 &amp; JSP 구현 </t>
+    <t>JPT 문제 수집 및 DB 구축</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>기능구현1</t>
+    <t xml:space="preserve">UI 인터페이스 구현및 &amp; JSP 구현 </t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">DB및 기능 구현1 </t>
+    <t>회원 인증 api 구현</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DB및 기능 및 시각화 구현 </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바, 서블릿 기능구현1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +716,7 @@
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -785,6 +789,30 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="16" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="2" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -803,28 +831,7 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="16" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="18" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="2" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="2" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1105,7 +1112,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1120,7 +1127,7 @@
   <dimension ref="B1:AF30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1135,92 +1142,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="48.75" customHeight="1">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
     </row>
     <row r="2" spans="2:32" ht="24.75" customHeight="1" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="36">
         <f ca="1">TODAY()-2</f>
-        <v>44179</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+        <v>44181</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:32" ht="12.75" customHeight="1">
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="2:32" ht="24.75" customHeight="1">
       <c r="B4" s="6"/>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="27" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="29" t="s">
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="27" t="s">
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="24" t="s">
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="32" t="s">
         <v>7</v>
       </c>
       <c r="AF4" s="1" t="s">
@@ -1340,7 +1347,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE5" s="24"/>
+      <c r="AE5" s="32"/>
       <c r="AF5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1459,7 +1466,7 @@
         <f t="shared" si="4"/>
         <v>일</v>
       </c>
-      <c r="AE6" s="24"/>
+      <c r="AE6" s="32"/>
     </row>
     <row r="7" spans="2:32" ht="18" customHeight="1" thickBot="1">
       <c r="B7" s="23" t="s">
@@ -1576,24 +1583,24 @@
         <f t="shared" ref="AD7" si="8">AC7+1</f>
         <v>44206</v>
       </c>
-      <c r="AE7" s="25"/>
+      <c r="AE7" s="33"/>
     </row>
     <row r="8" spans="2:32" ht="30" customHeight="1">
       <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="C8" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="16"/>
       <c r="N8" s="17"/>
       <c r="O8" s="16"/>
@@ -1620,20 +1627,20 @@
       <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="C9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="16"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="16"/>
@@ -1658,18 +1665,20 @@
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="15"/>
+      <c r="C10" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="16"/>
       <c r="N10" s="19"/>
       <c r="O10" s="16"/>
@@ -1696,20 +1705,20 @@
       <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="16"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="16"/>
@@ -1734,13 +1743,13 @@
       <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="C12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="15"/>
       <c r="I12" s="16"/>
       <c r="J12" s="15"/>
@@ -2129,9 +2138,9 @@
       <c r="G24" s="20"/>
       <c r="H24" s="21"/>
       <c r="I24" s="20"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="31"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="20"/>
       <c r="N24" s="21"/>
       <c r="O24" s="20"/>
@@ -2157,17 +2166,17 @@
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="31"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="25"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="21"/>
       <c r="S25" s="20"/>
@@ -2193,7 +2202,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="15"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="31"/>
+      <c r="J26" s="25"/>
       <c r="K26" s="16"/>
       <c r="L26" s="15"/>
       <c r="M26" s="16"/>
@@ -2227,7 +2236,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="15"/>
       <c r="K27" s="20"/>
-      <c r="L27" s="31"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="20"/>
       <c r="N27" s="21"/>
       <c r="O27" s="20"/>
